--- a/biology/Histoire de la zoologie et de la botanique/Joel_Asaph_Allen/Joel_Asaph_Allen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joel_Asaph_Allen/Joel_Asaph_Allen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joel Asaph Allen est un mammalogiste et ornithologue américain, né le 19 juillet 1838 à Springfield (Massachusetts) et mort le 29 août 1921 à Cornwall-on-Hudson (New York).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joel A. Allen est le fils aîné de Joel Allen, un maçon qui devient plus tard fermier, et d’Harriet Trumbull, une institutrice. Il doit vendre sa collection, déjà considérable, d'histoire naturelle pour étudier à la Wilbraham Academy (Massachusetts) de façon intermittente de 1858 à 1862 avant d'aller à l'université Harvard sous Louis Agassiz de 1862 à 1871. Il devient assistant au musée de Zoologie comparée, fonction qu’il occupe de 1871 à 1885. Il donne également des cours d’ornithologie à l’université Harvard de 1870 à 1875. De 1876 à 1882, il travaille pour le bureau de recherche géologique et géographique américain.
 Il participe à une expédition au Brésil en 1865 avec Louis Agassiz et à plusieurs autres dans les États-Unis. En 1873, il conduit la mission naturaliste de la North Pacific Railroad qui part de Bismarck dans le Dakota du Nord et se rend à Yellowstone ; les spécimens récoltés sont ensuite envoyés au Smithsonian. Il se marie avec Mary Manning Cleveland en 1874 ; elle lui donnera un fils mais mourra en 1879.
@@ -546,7 +560,9 @@
           <t>Publications (liste partielle)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1868 : « Notes on birds observed in western Iowa in the months of July, August and September Also in northern Illinois in May and June, and at Richmond, Wane Co., Indiana, June 3-10, 1867 », dans Memoirs of the Boston Society of Natural History, vol. I, 4e partie, p. 488 (OCLC 793600662).
 1869 : Catalogue of the mammals of Massachusetts : with a critical revision of the species.
